--- a/Математика/мтмк.xlsx
+++ b/Математика/мтмк.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="104">
   <si>
     <t>d_30</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>a=</t>
-  </si>
-  <si>
-    <t>0.1</t>
   </si>
   <si>
     <t>xi</t>
@@ -651,6 +648,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -945,11 +943,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446187816"/>
-        <c:axId val="446184288"/>
+        <c:axId val="387598648"/>
+        <c:axId val="387597080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446187816"/>
+        <c:axId val="387598648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,12 +1004,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446184288"/>
+        <c:crossAx val="387597080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446184288"/>
+        <c:axId val="387597080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1066,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446187816"/>
+        <c:crossAx val="387598648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1157,6 +1155,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1256,11 +1255,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="446186248"/>
-        <c:axId val="446186640"/>
+        <c:axId val="387599040"/>
+        <c:axId val="387602176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446186248"/>
+        <c:axId val="387599040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1301,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446186640"/>
+        <c:crossAx val="387602176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1310,7 +1309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446186640"/>
+        <c:axId val="387602176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1360,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446186248"/>
+        <c:crossAx val="387599040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1556,8 +1555,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="446187424"/>
-        <c:axId val="448093336"/>
+        <c:axId val="387603744"/>
+        <c:axId val="387601392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1628,11 +1627,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446187424"/>
-        <c:axId val="448093336"/>
+        <c:axId val="387603744"/>
+        <c:axId val="387601392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="446187424"/>
+        <c:axId val="387603744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1673,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448093336"/>
+        <c:crossAx val="387601392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1682,7 +1681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448093336"/>
+        <c:axId val="387601392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1732,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446187424"/>
+        <c:crossAx val="387603744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3518,6 +3517,234 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>26522</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>156582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1293091" y="8197273"/>
+          <a:ext cx="3905795" cy="5144218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265545</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>46182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68620</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>83066</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5437909" y="9536546"/>
+          <a:ext cx="5668166" cy="5763429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>629589</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>149545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11914909" y="9490364"/>
+          <a:ext cx="6725589" cy="6430272"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>5409</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>33350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1235363" y="15701818"/>
+          <a:ext cx="8064137" cy="4536077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>727363</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>170294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>274804</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>21803</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10021454" y="16126112"/>
+          <a:ext cx="7617714" cy="4284964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>80817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>845663</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>10258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200727" y="20654817"/>
+          <a:ext cx="8084663" cy="4547623"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4005,34 +4232,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView topLeftCell="A8" zoomScale="55" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="1" customWidth="1"/>
+    <col min="1" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="9" width="11.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1796875" style="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="1" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="9.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="1"/>
-    <col min="25" max="25" width="13.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="11.28515625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="12.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.26953125" style="1" customWidth="1"/>
+    <col min="18" max="20" width="9.1796875" style="1"/>
+    <col min="21" max="21" width="9.1796875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.453125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1796875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="9.1796875" style="1"/>
+    <col min="25" max="25" width="13.1796875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.1796875" style="1"/>
+    <col min="27" max="27" width="11.26953125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4085,7 +4312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -4154,17 +4381,17 @@
         <v>1.0453050398149941</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>23</v>
       </c>
@@ -4176,7 +4403,7 @@
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>14</v>
       </c>
@@ -4211,7 +4438,7 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="6"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -4234,8 +4461,8 @@
       <c r="U7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="V7" s="3" t="s">
-        <v>30</v>
+      <c r="V7" s="3">
+        <v>0.1</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -4245,7 +4472,7 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="8"/>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -4279,7 +4506,7 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="8"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -4318,28 +4545,28 @@
         <v>24</v>
       </c>
       <c r="W9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Y9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="Z9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA9" s="3" t="s">
+      <c r="AB9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AB9" s="3" t="s">
+      <c r="AC9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AC9" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>37</v>
       </c>
@@ -4411,7 +4638,7 @@
         <v>36.737374008023238</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4483,7 +4710,7 @@
         <v>23.241027517969421</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -4555,7 +4782,7 @@
         <v>14.702884315385401</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -4627,7 +4854,7 @@
         <v>9.3014307144752735</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -4699,7 +4926,7 @@
         <v>5.884329324801346</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -4771,7 +4998,7 @@
         <v>3.7225812528852891</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>8</v>
       </c>
@@ -4843,7 +5070,7 @@
         <v>2.355002655260261</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -4915,7 +5142,7 @@
         <v>1.4898365218984226</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -4987,7 +5214,7 @@
         <v>0.94250970674047319</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -5059,7 +5286,7 @@
         <v>0.59625639071330305</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>12</v>
       </c>
@@ -5094,7 +5321,7 @@
       <c r="AB20" s="3"/>
       <c r="AC20" s="8"/>
     </row>
-    <row r="21" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>13</v>
       </c>
@@ -5122,7 +5349,7 @@
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
       <c r="U21" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V21" s="11">
         <f>1/O2</f>
@@ -5136,7 +5363,7 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="12"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -5169,7 +5396,7 @@
       <c r="Z22" s="3"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -5202,7 +5429,7 @@
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>27</v>
       </c>
@@ -5231,7 +5458,7 @@
       <c r="Z24" s="3"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -5260,7 +5487,7 @@
       <c r="Z25" s="3"/>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>10</v>
       </c>
@@ -5288,13 +5515,13 @@
         <v>24</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y26" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="Y26" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="Z26" s="5"/>
       <c r="AA26" s="5"/>
@@ -5303,7 +5530,7 @@
       <c r="AD26" s="5"/>
       <c r="AE26" s="6"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -5351,7 +5578,7 @@
       <c r="AD27" s="3"/>
       <c r="AE27" s="8"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>30</v>
       </c>
@@ -5399,7 +5626,7 @@
       <c r="AD28" s="3"/>
       <c r="AE28" s="8"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -5447,7 +5674,7 @@
       <c r="AD29" s="3"/>
       <c r="AE29" s="8"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>18</v>
       </c>
@@ -5495,7 +5722,7 @@
       <c r="AD30" s="3"/>
       <c r="AE30" s="8"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -5543,7 +5770,7 @@
       <c r="AD31" s="3"/>
       <c r="AE31" s="8"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>11</v>
       </c>
@@ -5591,7 +5818,7 @@
       <c r="AD32" s="3"/>
       <c r="AE32" s="8"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -5639,7 +5866,7 @@
       <c r="AD33" s="3"/>
       <c r="AE33" s="8"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -5672,7 +5899,7 @@
       <c r="AD34" s="3"/>
       <c r="AE34" s="8"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>15</v>
       </c>
@@ -5705,7 +5932,7 @@
       <c r="AD35" s="3"/>
       <c r="AE35" s="8"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>41</v>
       </c>
@@ -5727,17 +5954,17 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="U36" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V36" s="3">
         <f>SUM(Y27:Y33)</f>
         <v>6.1764317085916325</v>
       </c>
       <c r="W36" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Y36" s="3">
         <f>_xlfn.CHISQ.INV.RT(0.1,7-1-1)</f>
@@ -5750,7 +5977,7 @@
       <c r="AD36" s="3"/>
       <c r="AE36" s="8"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>5</v>
       </c>
@@ -5777,7 +6004,7 @@
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
       <c r="Z37" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
@@ -5785,7 +6012,7 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="8"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>19</v>
       </c>
@@ -5807,7 +6034,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="U38" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -5820,7 +6047,7 @@
       <c r="AD38" s="3"/>
       <c r="AE38" s="8"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>10</v>
       </c>
@@ -5846,7 +6073,7 @@
         <v>0.28942799153545823</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
@@ -5858,7 +6085,7 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="8"/>
     </row>
-    <row r="40" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>25</v>
       </c>
@@ -5881,7 +6108,7 @@
       <c r="O40" s="3"/>
       <c r="U40" s="13"/>
       <c r="V40" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
@@ -5893,7 +6120,7 @@
       <c r="AD40" s="14"/>
       <c r="AE40" s="12"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -5915,7 +6142,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>20</v>
       </c>
@@ -5937,7 +6164,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>21</v>
       </c>
@@ -5959,292 +6186,292 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -6266,146 +6493,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T83" sqref="T83"/>
+    <sheetView tabSelected="1" topLeftCell="S38" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="20.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="1"/>
-    <col min="16" max="17" width="17.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="20.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.81640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.26953125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1796875" style="1"/>
+    <col min="16" max="17" width="17.26953125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.1796875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>51</v>
-      </c>
       <c r="I1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="19" t="s">
+      <c r="S1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="S1" s="19" t="s">
+      <c r="X1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="Z1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="AA1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="X1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AK1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AO1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP1" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AQ1" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AT1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AU1" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AY1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP1" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="AQ1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT1" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW1" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY1" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" s="19">
         <v>144</v>
       </c>
@@ -6524,7 +6751,7 @@
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" s="19">
         <v>161</v>
       </c>
@@ -6643,7 +6870,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>170</v>
       </c>
@@ -6762,7 +6989,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>182</v>
       </c>
@@ -6881,7 +7108,7 @@
         <v>43.8</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>188</v>
       </c>
@@ -7000,7 +7227,7 @@
         <v>67.400000000000006</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>206</v>
       </c>
@@ -7119,7 +7346,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>209</v>
       </c>
@@ -7238,7 +7465,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>232</v>
       </c>
@@ -7357,7 +7584,7 @@
         <v>62.7</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>246</v>
       </c>
@@ -7476,7 +7703,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>259</v>
       </c>
@@ -7595,7 +7822,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>273</v>
       </c>
@@ -7714,7 +7941,7 @@
         <v>74.900000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>293</v>
       </c>
@@ -7833,7 +8060,7 @@
         <v>60.2</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>323</v>
       </c>
@@ -7952,7 +8179,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>342</v>
       </c>
@@ -8071,7 +8298,7 @@
         <v>63.4</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>384</v>
       </c>
@@ -8190,7 +8417,7 @@
         <v>75.2</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>422</v>
       </c>
@@ -8309,7 +8536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>429</v>
       </c>
@@ -8428,7 +8655,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>433</v>
       </c>
@@ -8547,7 +8774,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>436</v>
       </c>
@@ -8666,7 +8893,7 @@
         <v>65.5</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>264</v>
       </c>
@@ -8785,23 +9012,23 @@
         <v>64.3</v>
       </c>
     </row>
-    <row r="22" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="I23" s="1">
         <f t="array" ref="I23:L27">LINEST(I2:I21,J2:L21,1,1)</f>
@@ -8916,9 +9143,9 @@
         <v>56.768315747212284</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="16">
         <v>1</v>
@@ -9030,9 +9257,9 @@
         <v>102.665366410453</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="16">
         <f>CORREL(B2:B21,$A$2:$A$21)</f>
@@ -9147,9 +9374,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="16">
         <f>CORREL(C2:C21,$A$2:$A$21)</f>
@@ -9267,9 +9494,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="16">
         <f>CORREL(D2:D21,$A$2:$A$21)</f>
@@ -9390,9 +9617,9 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:51" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="18">
         <f>CORREL(E2:E21,$A$2:$A$21)</f>
@@ -9414,16 +9641,16 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I28" s="21">
         <f>COUNT(I2:I21)-1</f>
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.35">
       <c r="H29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I29">
         <f>J26</f>
@@ -9466,14 +9693,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
       <c r="H30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I30">
         <f>I25</f>
@@ -9516,15 +9743,9 @@
         <v>0.26084239422304056</v>
       </c>
     </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.35">
       <c r="H31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31">
         <f>1-(1-I30)*($I$28/I29)</f>
@@ -9567,34 +9788,34 @@
         <v>0.17388267589633943</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="X32" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I34" t="s">
-        <v>58</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -9605,7 +9826,7 @@
       <c r="P34"/>
       <c r="Q34"/>
     </row>
-    <row r="35" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -9616,9 +9837,9 @@
       <c r="P35"/>
       <c r="Q35"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I36" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J36" s="25"/>
       <c r="K36"/>
@@ -9633,9 +9854,9 @@
       <c r="Z36" s="19"/>
       <c r="AA36" s="19"/>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I37" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J37" s="22">
         <v>0.80433655395073256</v>
@@ -9652,9 +9873,9 @@
       <c r="Z37" s="19"/>
       <c r="AA37" s="19"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I38" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J38" s="22">
         <v>0.64695729202133967</v>
@@ -9671,9 +9892,9 @@
       <c r="Z38" s="19"/>
       <c r="AA38" s="19"/>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I39" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J39" s="22">
         <v>0.58076178427534086</v>
@@ -9690,9 +9911,9 @@
       <c r="Z39" s="19"/>
       <c r="AA39" s="19"/>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I40" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J40" s="22">
         <v>63.776072209620651</v>
@@ -9709,9 +9930,9 @@
       <c r="Z40" s="19"/>
       <c r="AA40" s="19"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I41" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J41" s="23">
         <v>20</v>
@@ -9728,7 +9949,7 @@
       <c r="Z41" s="19"/>
       <c r="AA41" s="19"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I42"/>
       <c r="J42"/>
       <c r="K42"/>
@@ -9743,9 +9964,9 @@
       <c r="Z42" s="19"/>
       <c r="AA42" s="19"/>
     </row>
-    <row r="43" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -9760,22 +9981,22 @@
       <c r="Z43" s="19"/>
       <c r="AA43" s="19"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I44" s="24"/>
       <c r="J44" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="L44" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L44" s="24" t="s">
+      <c r="M44" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="M44" s="24" t="s">
+      <c r="N44" s="24" t="s">
         <v>73</v>
-      </c>
-      <c r="N44" s="24" t="s">
-        <v>74</v>
       </c>
       <c r="O44"/>
       <c r="P44"/>
@@ -9785,9 +10006,9 @@
       <c r="Z44" s="19"/>
       <c r="AA44" s="19"/>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I45" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J45" s="22">
         <v>3</v>
@@ -9812,9 +10033,9 @@
       <c r="Z45" s="19"/>
       <c r="AA45" s="19"/>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="I46" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J46" s="22">
         <v>16</v>
@@ -9835,9 +10056,9 @@
       <c r="Z46" s="19"/>
       <c r="AA46" s="19"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I47" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J47" s="23">
         <v>19</v>
@@ -9856,7 +10077,7 @@
       <c r="Z47" s="19"/>
       <c r="AA47" s="19"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
@@ -9871,40 +10092,40 @@
       <c r="Z48" s="19"/>
       <c r="AA48" s="19"/>
     </row>
-    <row r="49" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I49" s="24"/>
       <c r="J49" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="L49" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="K49" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" s="24" t="s">
+      <c r="M49" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="M49" s="24" t="s">
+      <c r="N49" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="N49" s="24" t="s">
+      <c r="O49" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="O49" s="24" t="s">
+      <c r="P49" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="P49" s="24" t="s">
+      <c r="Q49" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="Q49" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="X49" s="19"/>
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
       <c r="AA49" s="19"/>
     </row>
-    <row r="50" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I50" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J50" s="22">
         <v>-216.09285755606484</v>
@@ -9935,9 +10156,9 @@
       <c r="Z50" s="19"/>
       <c r="AA50" s="19"/>
     </row>
-    <row r="51" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I51" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J51" s="22">
         <v>-5.3860226126135444</v>
@@ -9968,9 +10189,9 @@
       <c r="Z51" s="19"/>
       <c r="AA51" s="19"/>
     </row>
-    <row r="52" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I52" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J52" s="22">
         <v>9.9558985290867348</v>
@@ -10001,9 +10222,9 @@
       <c r="Z52" s="19"/>
       <c r="AA52" s="19"/>
     </row>
-    <row r="53" spans="9:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="9:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I53" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J53" s="23">
         <v>1.2511861634928614</v>
@@ -10034,7 +10255,7 @@
       <c r="Z53" s="19"/>
       <c r="AA53" s="19"/>
     </row>
-    <row r="54" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I54"/>
       <c r="J54"/>
       <c r="K54"/>
@@ -10049,7 +10270,7 @@
       <c r="Z54" s="19"/>
       <c r="AA54" s="19"/>
     </row>
-    <row r="55" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55"/>
@@ -10064,16 +10285,16 @@
       <c r="Z55" s="19"/>
       <c r="AA55" s="19"/>
     </row>
-    <row r="56" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J56">
         <f>N45</f>
         <v>6.6718848163187662E-4</v>
       </c>
       <c r="K56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L56"/>
       <c r="M56"/>
@@ -10086,81 +10307,81 @@
       <c r="Z56" s="19"/>
       <c r="AA56" s="19"/>
     </row>
-    <row r="58" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
     </row>
-    <row r="59" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I59" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J59">
         <f>M50</f>
         <v>5.2813234348292444E-2</v>
       </c>
       <c r="K59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L59"/>
       <c r="M59"/>
     </row>
-    <row r="60" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I60" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J60">
         <f>M51</f>
         <v>7.6349200992366348E-2</v>
       </c>
       <c r="K60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L60"/>
       <c r="M60"/>
     </row>
-    <row r="61" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I61" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J61">
         <f>M52</f>
         <v>2.7954021140828727E-3</v>
       </c>
       <c r="K61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L61"/>
       <c r="M61"/>
     </row>
-    <row r="62" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I62" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J62">
         <f>M53</f>
         <v>0.22998969017830609</v>
       </c>
       <c r="K62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L62"/>
       <c r="M62"/>
     </row>
-    <row r="63" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
     </row>
-    <row r="64" spans="9:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:27" x14ac:dyDescent="0.35">
       <c r="I64" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -10168,9 +10389,9 @@
       <c r="M64"/>
       <c r="X64"/>
     </row>
-    <row r="65" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I65" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J65">
         <f>_xlfn.STDEV.S(X2:X21)</f>
@@ -10181,9 +10402,9 @@
       <c r="M65"/>
       <c r="X65"/>
     </row>
-    <row r="66" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I66" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66">
         <f>_xlfn.STDEV.S(Y2:Y21)</f>
@@ -10191,7 +10412,7 @@
       </c>
       <c r="K66"/>
       <c r="L66" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M66">
         <f>(J51*J66)/$J$65</f>
@@ -10199,9 +10420,9 @@
       </c>
       <c r="X66"/>
     </row>
-    <row r="67" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I67" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J67">
         <f>_xlfn.STDEV.S(Z2:Z21)</f>
@@ -10209,16 +10430,16 @@
       </c>
       <c r="K67"/>
       <c r="L67" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M67">
         <f>(J52*J67)/$J$65</f>
         <v>1.6037158548580723</v>
       </c>
     </row>
-    <row r="68" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I68" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J68">
         <f>_xlfn.STDEV.S(AA2:AA21)</f>
@@ -10226,29 +10447,29 @@
       </c>
       <c r="K68"/>
       <c r="L68" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M68">
         <f>(J53*J68)/$J$65</f>
         <v>0.20271596615416379</v>
       </c>
     </row>
-    <row r="69" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:24" x14ac:dyDescent="0.35">
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
     </row>
-    <row r="70" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I70" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
     </row>
-    <row r="71" spans="9:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:24" x14ac:dyDescent="0.35">
       <c r="I71" s="31"/>
     </row>
   </sheetData>

--- a/Математика/мтмк.xlsx
+++ b/Математика/мтмк.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
   <si>
     <t>d_30</t>
   </si>
@@ -338,7 +338,13 @@
     <t>β3 =</t>
   </si>
   <si>
-    <t>β3 оказывает наибольшее значение на результат</t>
+    <t>β2 оказывает наибольшее значение на результат</t>
+  </si>
+  <si>
+    <t>β1 оказывает среднее значение на результат</t>
+  </si>
+  <si>
+    <t>β3 оказывает наименьшее значение на результат</t>
   </si>
 </sst>
 </file>
@@ -494,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,7 +584,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -651,6 +656,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -945,11 +951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="446187816"/>
-        <c:axId val="446184288"/>
+        <c:axId val="441278560"/>
+        <c:axId val="441279344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="446187816"/>
+        <c:axId val="441278560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1006,12 +1012,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446184288"/>
+        <c:crossAx val="441279344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="446184288"/>
+        <c:axId val="441279344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1074,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446187816"/>
+        <c:crossAx val="441278560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1157,6 +1163,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1256,11 +1263,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="446186248"/>
-        <c:axId val="446186640"/>
+        <c:axId val="441275032"/>
+        <c:axId val="441278168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="446186248"/>
+        <c:axId val="441275032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1309,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446186640"/>
+        <c:crossAx val="441278168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1310,7 +1317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="446186640"/>
+        <c:axId val="441278168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1361,7 +1368,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446186248"/>
+        <c:crossAx val="441275032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1556,8 +1563,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="446187424"/>
-        <c:axId val="448093336"/>
+        <c:axId val="441275424"/>
+        <c:axId val="441274248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1628,11 +1635,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="446187424"/>
-        <c:axId val="448093336"/>
+        <c:axId val="441275424"/>
+        <c:axId val="441274248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="446187424"/>
+        <c:axId val="441275424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1674,7 +1681,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="448093336"/>
+        <c:crossAx val="441274248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1682,7 +1689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="448093336"/>
+        <c:axId val="441274248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1740,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="446187424"/>
+        <c:crossAx val="441275424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3518,6 +3525,272 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252351</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423520</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>176432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="864672" y="9865179"/>
+          <a:ext cx="7573455" cy="4680396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>329045</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>438090</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>164885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9160081" y="10301019"/>
+          <a:ext cx="7184759" cy="4423509"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>33399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>411719</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>153340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="830036" y="14974042"/>
+          <a:ext cx="7596290" cy="4691941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>216158</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>44946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>327584</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>55205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9047194" y="14985589"/>
+          <a:ext cx="8411783" cy="5153759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>721179</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>329806</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>18433</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17852572" y="10395858"/>
+          <a:ext cx="3677163" cy="5325218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>117484</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18002250" y="16083643"/>
+          <a:ext cx="3315163" cy="2476846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>143493</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>143533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21812250" y="10368643"/>
+          <a:ext cx="4429743" cy="4715533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3563,44 +3836,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>168087</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>429759</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>43536</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16394205" y="11631706"/>
-          <a:ext cx="6312848" cy="3550977"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>40</xdr:row>
@@ -3620,7 +3855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3658,7 +3893,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3696,7 +3931,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3705,6 +3940,44 @@
         <a:xfrm>
           <a:off x="16797618" y="15609794"/>
           <a:ext cx="4944620" cy="4243472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>11320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>189213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16909677" y="11721467"/>
+          <a:ext cx="6073588" cy="3416393"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4005,8 +4278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+    <sheetView topLeftCell="B46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF55" sqref="AF55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4250,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="32"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -5113,11 +5386,11 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="8"/>
-      <c r="N21" s="33" t="s">
+      <c r="N21" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="12"/>
@@ -5377,19 +5650,19 @@
         <v>5</v>
       </c>
       <c r="V28" s="3">
-        <f t="shared" ref="V28:V32" si="14">U28+$S$6</f>
+        <f t="shared" ref="V28:V31" si="14">U28+$S$6</f>
         <v>10</v>
       </c>
       <c r="W28" s="3">
-        <f t="shared" ref="W28:W32" si="15">X11</f>
+        <f t="shared" ref="W28:W31" si="15">X11</f>
         <v>26</v>
       </c>
       <c r="X28" s="3">
-        <f t="shared" ref="X28:X32" si="16">AC11</f>
+        <f t="shared" ref="X28:X31" si="16">AC11</f>
         <v>23.241027517969421</v>
       </c>
       <c r="Y28" s="15">
-        <f t="shared" ref="Y28:Y32" si="17">(W28-X28)^2/X28</f>
+        <f t="shared" ref="Y28:Y31" si="17">(W28-X28)^2/X28</f>
         <v>0.3275211971896082</v>
       </c>
       <c r="Z28" s="3"/>
@@ -5569,20 +5842,20 @@
         <v>25</v>
       </c>
       <c r="V32" s="3">
-        <f t="shared" si="14"/>
-        <v>30</v>
+        <f>V19</f>
+        <v>50</v>
       </c>
       <c r="W32" s="3">
-        <f t="shared" si="15"/>
-        <v>7</v>
+        <f>SUM(X15:X19)</f>
+        <v>15</v>
       </c>
       <c r="X32" s="3">
-        <f t="shared" si="16"/>
-        <v>3.7225812528852891</v>
+        <f>SUM(AC15:AC19)</f>
+        <v>9.1061865274977496</v>
       </c>
       <c r="Y32" s="15">
-        <f t="shared" si="17"/>
-        <v>2.8854907157804779</v>
+        <f>(W32-X32)^2/X32</f>
+        <v>3.8146634866037914</v>
       </c>
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
@@ -5612,26 +5885,7 @@
       <c r="L33" s="8"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="U33" s="7">
-        <f>V32</f>
-        <v>30</v>
-      </c>
-      <c r="V33" s="3">
-        <f>V19</f>
-        <v>50</v>
-      </c>
-      <c r="W33" s="3">
-        <f>SUM(X16:X19)</f>
-        <v>8</v>
-      </c>
-      <c r="X33" s="3">
-        <f>SUM(AC16:AC19)</f>
-        <v>5.3836052746124601</v>
-      </c>
-      <c r="Y33" s="15">
-        <f>(W33-X33)^2/X33</f>
-        <v>1.2715496418946719</v>
-      </c>
+      <c r="U33" s="7"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
@@ -5730,8 +5984,8 @@
         <v>40</v>
       </c>
       <c r="V36" s="3">
-        <f>SUM(Y27:Y33)</f>
-        <v>6.1764317085916325</v>
+        <f>SUM(Y27:Y32)</f>
+        <v>5.8340548375202737</v>
       </c>
       <c r="W36" s="3" t="s">
         <v>42</v>
@@ -5740,8 +5994,8 @@
         <v>41</v>
       </c>
       <c r="Y36" s="3">
-        <f>_xlfn.CHISQ.INV.RT(0.1,7-1-1)</f>
-        <v>9.2363568997811178</v>
+        <f>_xlfn.CHISQ.INV.RT(0.1,6-1-1)</f>
+        <v>7.7794403397348582</v>
       </c>
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
@@ -5842,8 +6096,8 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="U39" s="7">
-        <f>_xlfn.CHISQ.DIST.RT(V36,7-1-1)</f>
-        <v>0.28942799153545823</v>
+        <f>_xlfn.CHISQ.DIST.RT(V36,6-1-1)</f>
+        <v>0.21188865296255713</v>
       </c>
       <c r="V39" s="3" t="s">
         <v>46</v>
@@ -6264,10 +6518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY71"/>
+  <dimension ref="A1:AY72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T83" sqref="T83"/>
+    <sheetView tabSelected="1" topLeftCell="O40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9517,12 +9771,6 @@
       </c>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H31" t="s">
         <v>56</v>
       </c>
@@ -10194,8 +10442,8 @@
         <v>93</v>
       </c>
       <c r="M66">
-        <f>(J51*J66)/$J$65</f>
-        <v>-0.83748224371332003</v>
+        <f>ABS((J51*J66)/$J$65)</f>
+        <v>0.83748224371332003</v>
       </c>
       <c r="X66"/>
     </row>
@@ -10212,7 +10460,7 @@
         <v>102</v>
       </c>
       <c r="M67">
-        <f>(J52*J67)/$J$65</f>
+        <f t="shared" ref="M67:M68" si="0">ABS((J52*J67)/$J$65)</f>
         <v>1.6037158548580723</v>
       </c>
     </row>
@@ -10229,7 +10477,7 @@
         <v>103</v>
       </c>
       <c r="M68">
-        <f>(J53*J68)/$J$65</f>
+        <f t="shared" si="0"/>
         <v>0.20271596615416379</v>
       </c>
     </row>
@@ -10249,7 +10497,14 @@
       <c r="M70"/>
     </row>
     <row r="71" spans="9:24" x14ac:dyDescent="0.25">
-      <c r="I71" s="31"/>
+      <c r="I71" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I72" s="30" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Математика/мтмк.xlsx
+++ b/Математика/мтмк.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -943,11 +943,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387598648"/>
-        <c:axId val="387597080"/>
+        <c:axId val="389442512"/>
+        <c:axId val="389437808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387598648"/>
+        <c:axId val="389442512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,12 +1004,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387597080"/>
+        <c:crossAx val="389437808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387597080"/>
+        <c:axId val="389437808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1066,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387598648"/>
+        <c:crossAx val="389442512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1255,11 +1255,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="387599040"/>
-        <c:axId val="387602176"/>
+        <c:axId val="389438592"/>
+        <c:axId val="394562384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="387599040"/>
+        <c:axId val="389438592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1301,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387602176"/>
+        <c:crossAx val="394562384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1309,7 +1309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387602176"/>
+        <c:axId val="394562384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,7 +1360,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387599040"/>
+        <c:crossAx val="389438592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1555,8 +1555,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="387603744"/>
-        <c:axId val="387601392"/>
+        <c:axId val="394566696"/>
+        <c:axId val="394562776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1627,11 +1627,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387603744"/>
-        <c:axId val="387601392"/>
+        <c:axId val="394566696"/>
+        <c:axId val="394562776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="387603744"/>
+        <c:axId val="394566696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,7 +1673,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387601392"/>
+        <c:crossAx val="394562776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1681,7 +1681,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387601392"/>
+        <c:axId val="394562776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1732,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387603744"/>
+        <c:crossAx val="394566696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3745,6 +3745,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>614476</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>92364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>782804</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>102623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9908567" y="20666364"/>
+          <a:ext cx="8885146" cy="4997895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4232,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="55" workbookViewId="0">
+      <selection activeCell="AB123" sqref="AB123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6493,7 +6531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S38" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="53" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
